--- a/server/LISTAS/mi/MANIJA FIJA.xlsx
+++ b/server/LISTAS/mi/MANIJA FIJA.xlsx
@@ -807,7 +807,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>

--- a/server/LISTAS/mi/MANIJA FIJA.xlsx
+++ b/server/LISTAS/mi/MANIJA FIJA.xlsx
@@ -807,7 +807,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C34" s="29" t="n"/>
       <c r="D34" s="31" t="n">
-        <v>100.382</v>
+        <v>206.846</v>
       </c>
       <c r="E34" s="4" t="n"/>
       <c r="F34" s="32" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="C35" s="29" t="n"/>
       <c r="D35" s="33" t="n">
-        <v>142.229</v>
+        <v>293.075</v>
       </c>
       <c r="E35" s="4" t="n"/>
       <c r="F35" s="32" t="n"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="C36" s="29" t="n"/>
       <c r="D36" s="31" t="n">
-        <v>192.417</v>
+        <v>396.525</v>
       </c>
       <c r="E36" s="4" t="n"/>
       <c r="F36" s="32" t="n"/>
@@ -968,15 +968,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/MANIJA FIJA.xlsx
+++ b/server/LISTAS/mi/MANIJA FIJA.xlsx
@@ -807,7 +807,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>

--- a/server/LISTAS/mi/MANIJA FIJA.xlsx
+++ b/server/LISTAS/mi/MANIJA FIJA.xlsx
@@ -807,7 +807,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C34" s="29" t="n"/>
       <c r="D34" s="31" t="n">
-        <v>206.846</v>
+        <v>100.382</v>
       </c>
       <c r="E34" s="4" t="n"/>
       <c r="F34" s="32" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="C35" s="29" t="n"/>
       <c r="D35" s="33" t="n">
-        <v>293.075</v>
+        <v>142.229</v>
       </c>
       <c r="E35" s="4" t="n"/>
       <c r="F35" s="32" t="n"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="C36" s="29" t="n"/>
       <c r="D36" s="31" t="n">
-        <v>396.525</v>
+        <v>192.417</v>
       </c>
       <c r="E36" s="4" t="n"/>
       <c r="F36" s="32" t="n"/>
@@ -968,15 +968,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/MANIJA FIJA.xlsx
+++ b/server/LISTAS/mi/MANIJA FIJA.xlsx
@@ -807,7 +807,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -968,15 +968,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/MANIJA FIJA.xlsx
+++ b/server/LISTAS/mi/MANIJA FIJA.xlsx
@@ -807,7 +807,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -968,15 +968,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/MANIJA FIJA.xlsx
+++ b/server/LISTAS/mi/MANIJA FIJA.xlsx
@@ -807,7 +807,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -968,15 +968,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/MANIJA FIJA.xlsx
+++ b/server/LISTAS/mi/MANIJA FIJA.xlsx
@@ -807,7 +807,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45406</v>
+        <v>45415</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="C37" s="29" t="n"/>
       <c r="D37" s="31" t="n">
-        <v>508</v>
+        <v>317.01</v>
       </c>
       <c r="E37" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/MANIJA FIJA.xlsx
+++ b/server/LISTAS/mi/MANIJA FIJA.xlsx
@@ -807,7 +807,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45415</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C34" s="29" t="n"/>
       <c r="D34" s="31" t="n">
-        <v>100.382</v>
+        <v>206.846</v>
       </c>
       <c r="E34" s="4" t="n"/>
       <c r="F34" s="32" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="C35" s="29" t="n"/>
       <c r="D35" s="33" t="n">
-        <v>142.229</v>
+        <v>293.075</v>
       </c>
       <c r="E35" s="4" t="n"/>
       <c r="F35" s="32" t="n"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="C36" s="29" t="n"/>
       <c r="D36" s="31" t="n">
-        <v>192.417</v>
+        <v>396.525</v>
       </c>
       <c r="E36" s="4" t="n"/>
       <c r="F36" s="32" t="n"/>
@@ -942,7 +942,7 @@
       </c>
       <c r="C37" s="29" t="n"/>
       <c r="D37" s="31" t="n">
-        <v>317.01</v>
+        <v>653.796</v>
       </c>
       <c r="E37" s="4" t="n"/>
     </row>
@@ -968,15 +968,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
